--- a/old_image/codesystem.xlsx
+++ b/old_image/codesystem.xlsx
@@ -868,7 +868,7 @@
     <t>CodeSystem.filter.operator</t>
   </si>
   <si>
-    <t>Operators that can be used with filter</t>
+    <t>= | is-a | descendent-of | is-not-a | regex | in | not-in | generalizes | exists</t>
   </si>
   <si>
     <t>A list of operators that can be used with the filter.</t>
